--- a/Collections/Russia/#Russia#USSR#Regular#[1921-1991]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#USSR#Regular#[1921-1991]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864959AF-5573-4736-88FA-16B4DE1D699C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6282F4-7001-4D22-B614-A5EDC385C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="полкопейки" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <sheet name="20копеек" sheetId="7" r:id="rId8"/>
     <sheet name="50копеек" sheetId="8" r:id="rId9"/>
     <sheet name="1рубль" sheetId="11" r:id="rId10"/>
-    <sheet name="Links" sheetId="13" r:id="rId11"/>
+    <sheet name="5рублей" sheetId="14" r:id="rId11"/>
+    <sheet name="10рублей" sheetId="15" r:id="rId12"/>
+    <sheet name="Links" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,6 +104,86 @@
       </text>
     </comment>
     <comment ref="F2" authorId="0" shapeId="0" xr:uid="{D63FB7BD-463A-4E17-B78B-432C0C2190CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Moscow Mint&amp;Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{4E7AA57A-F053-44E5-A5F0-8D996C7F6195}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Moscow Mint&amp;Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{DC16CD5B-D1C7-4861-A133-45B2910BD7EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Moscow Mint&amp;Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{378491EF-29D4-4C75-AC11-6B61E185D57F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Moscow Mint&amp;Saint Petersburg Mint</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{A6324494-6079-48EE-B910-7317EEFB95D8}">
       <text>
         <r>
           <rPr>
@@ -441,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="74">
   <si>
     <t>-</t>
   </si>
@@ -649,6 +731,21 @@
   <si>
     <t>M&amp;SP</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Copper Clad Steel </t>
+  </si>
+  <si>
+    <t>Obv: Kremlin Tower and Dome</t>
+  </si>
+  <si>
+    <t>5рублей</t>
+  </si>
+  <si>
+    <t>10рублей</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bi-Metallic</t>
+  </si>
 </sst>
 </file>
 
@@ -851,7 +948,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,6 +1037,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -959,16 +1065,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="98">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -976,23 +1079,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1669,6 +1755,71 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFE5DFEC"/>
           <bgColor rgb="FFE5DFEC"/>
         </patternFill>
@@ -1693,9 +1844,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="91"/>
-      <tableStyleElement type="firstRowStripe" dxfId="90"/>
-      <tableStyleElement type="secondRowStripe" dxfId="89"/>
+      <tableStyleElement type="headerRow" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="96"/>
+      <tableStyleElement type="secondRowStripe" dxfId="95"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1717,9 +1868,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1990,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2007,16 +2158,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -2026,15 +2177,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -3741,7 +3892,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F7 F9:F10">
-    <cfRule type="containsText" dxfId="88" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3758,7 +3909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3775,7 +3926,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="86" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3792,7 +3943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3809,7 +3960,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3826,7 +3977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3843,7 +3994,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F13 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3860,7 +4011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F14 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3884,13 +4035,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3905,16 +4056,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -3924,15 +4075,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -5702,6 +5853,26 @@
       </c>
       <c r="F78" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5711,8 +5882,23 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F43 F61:F72 F74:F75 F77:F78 F47:F59">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F5 F44">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -5725,11 +5911,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5 F44">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5740,9 +5926,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -5755,9 +5941,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -5770,9 +5956,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -5785,9 +5971,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -5800,9 +5986,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -5815,9 +6001,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -5830,9 +6016,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -5852,6 +6038,3638 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65B3A-DF3C-4D6B-B409-1956B9489219}">
+  <dimension ref="A1:G74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1921</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f t="shared" ref="G3:G8" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>1922</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1923</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>1924</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>1925</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>1926</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>1927</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f t="shared" ref="G9:G38" si="1">IF(OR(AND(F9&gt;1,F9&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>1928</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>1929</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>1930</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>1931</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>1932</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>1933</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>1934</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>1935</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>1936</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>1937</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>1938</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>1939</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>1940</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>1941</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>1942</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>1943</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>1944</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>1945</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>1946</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>1947</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>1948</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>1949</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>1950</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>1951</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>1952</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>1953</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>1954</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>1955</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>1956</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>1957</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f t="shared" ref="G39:G72" si="2">IF(OR(AND(F39&gt;1,F39&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>1958</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>1959</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>1960</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>1961</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>1962</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>1963</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>1964</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>1965</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>1966</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>1967</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>1968</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>1969</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>1970</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>1971</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>1972</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>1973</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>1974</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>1975</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>1976</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>1977</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>1978</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>1979</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>1980</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>1981</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>1982</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>1983</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>1984</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>1985</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>1986</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>1987</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>1988</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>1989</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>1990</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="11" t="str">
+        <f>IF(OR(AND(F73&gt;1,F73&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="1">
+        <v>16</v>
+      </c>
+      <c r="G74" s="11" t="str">
+        <f t="shared" ref="G74" si="3">IF(OR(AND(F74&gt;1,F74&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F72 F74">
+    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86C4EC1-C261-44F6-9B20-0A081DF4BFC4}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H74" sqref="H74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1921</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f t="shared" ref="G3:G66" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>1922</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1923</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>1924</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>1925</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>1926</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>1927</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>1928</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>1929</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>1930</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>1931</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>1932</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>1933</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>1934</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>1935</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>1936</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>1937</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>1938</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>1939</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>1940</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>1941</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>1942</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>1943</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>1944</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>1945</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>1946</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>1947</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>1948</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>1949</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>1950</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>1951</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>1952</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>1953</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>1954</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>1955</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>1956</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>1957</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>1958</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>1959</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>1960</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>1961</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>1962</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>1963</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>1964</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>1965</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>1966</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>1967</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>1968</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>1969</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>1970</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>1971</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>1972</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>1973</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>1974</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>1975</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>1976</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>1977</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>1978</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>1979</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>1980</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>1981</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>1982</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>1983</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>1984</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>1985</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11" t="str">
+        <f t="shared" ref="G67:G72" si="1">IF(OR(AND(F67&gt;1,F67&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>1986</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>1987</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>1988</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>1989</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>1990</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4</v>
+      </c>
+      <c r="G73" s="11" t="str">
+        <f>IF(OR(AND(F73&gt;1,F73&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F3:F72">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5957,16 +9775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -5976,15 +9794,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -7616,7 +11434,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="82" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7633,7 +11451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11 F32:F36 F29 F38 F40 F13:F25">
-    <cfRule type="containsText" dxfId="81" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7650,7 +11468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="80" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7667,7 +11485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="79" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7684,7 +11502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="78" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7701,7 +11519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="77" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7718,7 +11536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="76" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7735,7 +11553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7752,7 +11570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="74" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7769,7 +11587,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="73" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7786,7 +11604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="72" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7803,7 +11621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="71" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7820,7 +11638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7837,7 +11655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F74">
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7854,7 +11672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:F76">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7871,7 +11689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="67" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7888,7 +11706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7905,7 +11723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7949,16 +11767,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -7968,15 +11786,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -9720,7 +13538,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9737,7 +13555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="63" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9754,7 +13572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="62" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9771,7 +13589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="61" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9788,7 +13606,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F18 F20:F25">
-    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9805,7 +13623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9822,7 +13640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9839,7 +13657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9856,7 +13674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F42">
-    <cfRule type="containsText" dxfId="56" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9873,7 +13691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F75">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9890,7 +13708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F77">
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9907,7 +13725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9924,7 +13742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10003,16 +13821,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -10022,15 +13840,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -11712,7 +15530,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6 F9:F18 F20:F32 F34:F42 F44:F46">
-    <cfRule type="containsText" dxfId="49" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -11727,7 +15545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F78">
-    <cfRule type="containsText" dxfId="48" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11744,7 +15562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -11759,7 +15577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -11774,7 +15592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11791,7 +15609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -11806,7 +15624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -11848,16 +15666,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -11867,15 +15685,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -13798,12 +17616,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F76">
-    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="41" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -13922,13 +17740,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13944,16 +17762,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -13963,15 +17781,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -15701,6 +19519,30 @@
       <c r="G77" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+      <c r="G78" s="11" t="str">
+        <f t="shared" ref="G78" si="4">IF(OR(AND(F78&gt;1,F78&lt;&gt;"-")),"Can exchange","")</f>
+        <v>Can exchange</v>
       </c>
     </row>
   </sheetData>
@@ -15710,7 +19552,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F12 F14:F23 F27:F28 F30:F38 F25 F40:F44 F47:F73">
-    <cfRule type="containsText" dxfId="36" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -15725,7 +19567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -15740,7 +19582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -15755,7 +19597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26 F24">
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -15770,7 +19612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="32" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15785,7 +19627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15800,7 +19642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -15815,7 +19657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F75">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -15829,12 +19671,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F77">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F76:F78">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F77">
+  <conditionalFormatting sqref="F76:F78">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15875,16 +19717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
@@ -15894,15 +19736,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -17577,7 +21419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44 F47:F74">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17642,16 +21484,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
@@ -17661,15 +21503,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -19341,7 +23183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44 F47:F74">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19384,13 +23226,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19406,16 +23248,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
@@ -19425,15 +23267,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -21231,6 +25073,26 @@
       </c>
       <c r="F79" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>1991</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -21240,8 +25102,23 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 F9:F11 F7 F45 F48:F66 F72:F73 F75 F77:F79 F70">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
     <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -21254,11 +25131,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+  <conditionalFormatting sqref="F12:F44">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -21269,9 +25146,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F44">
+  <conditionalFormatting sqref="F6">
     <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -21284,9 +25161,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F46">
     <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -21299,9 +25176,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F47">
     <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -21314,9 +25191,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F71">
     <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -21329,9 +25206,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+  <conditionalFormatting sqref="F74">
     <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -21344,9 +25221,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
+  <conditionalFormatting sqref="F76">
     <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -21359,10 +25236,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
+  <conditionalFormatting sqref="F67:F69">
     <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F67:F69">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -21374,12 +25253,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F69">
+  <conditionalFormatting sqref="F80">
     <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F80))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F69">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Russia/#Russia#USSR#Regular#[1921-1991]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#USSR#Regular#[1921-1991]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6282F4-7001-4D22-B614-A5EDC385C550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C6550-BAC8-4804-BFAF-A3169ECBC554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="полкопейки" sheetId="12" r:id="rId1"/>
@@ -867,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -942,13 +942,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1002,17 +1043,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,6 +1084,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,13 +1103,441 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="144">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1844,9 +2310,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="97"/>
-      <tableStyleElement type="firstRowStripe" dxfId="96"/>
-      <tableStyleElement type="secondRowStripe" dxfId="95"/>
+      <tableStyleElement type="headerRow" dxfId="143"/>
+      <tableStyleElement type="firstRowStripe" dxfId="142"/>
+      <tableStyleElement type="secondRowStripe" dxfId="141"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1868,9 +2334,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="93" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="139" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2158,16 +2624,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -2177,15 +2643,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -3892,7 +4358,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F7 F9:F10">
-    <cfRule type="containsText" dxfId="91" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3909,7 +4375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="90" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3926,7 +4392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="89" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3943,7 +4409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="88" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3960,7 +4426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="87" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3977,7 +4443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3994,7 +4460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F13 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73">
-    <cfRule type="containsText" dxfId="85" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4011,7 +4477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F14 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72">
-    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4038,10 +4504,10 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4056,34 +4522,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -4194,7 +4660,7 @@
       <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -5051,7 +5517,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <v>1960</v>
       </c>
@@ -5076,20 +5542,20 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+      <c r="A44" s="49">
         <v>1961</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="D44" s="51"/>
+      <c r="E44" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="53">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -5211,21 +5677,21 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="54">
         <v>1967</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="D50" s="56"/>
+      <c r="E50" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="58">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -5234,20 +5700,20 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+      <c r="A51" s="49">
         <v>1968</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="D51" s="51"/>
+      <c r="E51" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="53">
         <v>0</v>
       </c>
       <c r="G51" s="11" t="str">
@@ -5321,21 +5787,21 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="54">
         <v>1972</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="D55" s="56"/>
+      <c r="E55" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="58">
         <v>0</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -5344,20 +5810,20 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+      <c r="A56" s="49">
         <v>1973</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="D56" s="51"/>
+      <c r="E56" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="53">
         <v>0</v>
       </c>
       <c r="G56" s="11" t="str">
@@ -5431,23 +5897,23 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="54">
         <v>1976</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="E60" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="58">
         <v>0</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -5456,20 +5922,20 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
+      <c r="A61" s="49">
         <v>1977</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="D61" s="51"/>
+      <c r="E61" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="53">
         <v>0</v>
       </c>
       <c r="G61" s="11" t="str">
@@ -5543,21 +6009,21 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="54">
         <v>1981</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="D65" s="56"/>
+      <c r="E65" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="58">
         <v>0</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -5566,20 +6032,20 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
+      <c r="A66" s="49">
         <v>1982</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="D66" s="51"/>
+      <c r="E66" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="53">
         <v>0</v>
       </c>
       <c r="G66" s="11" t="str">
@@ -5653,21 +6119,21 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="54">
         <v>1986</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="D70" s="56"/>
+      <c r="E70" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="58">
         <v>0</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -5676,20 +6142,20 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
+      <c r="A71" s="49">
         <v>1987</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="D71" s="51"/>
+      <c r="E71" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="53">
         <v>0</v>
       </c>
       <c r="G71" s="11" t="str">
@@ -5765,21 +6231,21 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="54">
         <v>1990</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="D75" s="56"/>
+      <c r="E75" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="58">
         <v>0</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -5881,11 +6347,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F43 F61:F72 F74:F75 F77:F78 F47:F59">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F8:F43 F77:F78">
+    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5896,9 +6362,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F5 F44">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F5">
+    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -5911,9 +6422,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F79))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:F50 F44">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -5926,9 +6467,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -5941,10 +6482,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
+  <conditionalFormatting sqref="F51:F55">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F55">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5956,10 +6499,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+  <conditionalFormatting sqref="F56:F60">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:F60">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5971,25 +6516,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+  <conditionalFormatting sqref="F61:F65">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F61))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="F61:F65">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6001,10 +6533,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
+  <conditionalFormatting sqref="F66:F70">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66:F70">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6016,10 +6550,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
+  <conditionalFormatting sqref="F71:F75">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F79))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F75">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6041,11 +6577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65B3A-DF3C-4D6B-B409-1956B9489219}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomRight" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6060,34 +6596,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>71</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -7869,7 +8405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86C4EC1-C261-44F6-9B20-0A081DF4BFC4}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7888,34 +8424,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>72</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -9688,57 +10224,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="27">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9757,10 +10293,10 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9775,16 +10311,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -9794,15 +10330,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -10763,23 +11299,23 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+    <row r="44" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="33">
         <v>1960</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="B44" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -10788,18 +11324,18 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="A45" s="49">
         <v>1961</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="19">
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="59">
         <v>1</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -10867,19 +11403,19 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="54">
         <v>1965</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="58">
         <v>1</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -10888,18 +11424,18 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+      <c r="A50" s="49">
         <v>1966</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="53">
         <v>1</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -10967,19 +11503,19 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="54">
         <v>1970</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="58">
         <v>2</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -10988,18 +11524,18 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+      <c r="A55" s="49">
         <v>1971</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="53">
         <v>3</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -11067,19 +11603,19 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
+    <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="54">
         <v>1975</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="58">
         <v>3</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -11088,18 +11624,18 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+      <c r="A60" s="49">
         <v>1976</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="53">
         <v>2</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -11167,19 +11703,19 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
+    <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="54">
         <v>1980</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="58">
         <v>2</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -11188,18 +11724,18 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+      <c r="A65" s="49">
         <v>1981</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="53">
         <v>3</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -11267,19 +11803,19 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
+    <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="54">
         <v>1985</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="58">
         <v>5</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -11288,18 +11824,18 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+      <c r="A70" s="49">
         <v>1986</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="53">
         <v>2</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -11367,19 +11903,19 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
+    <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="54">
         <v>1990</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="58">
         <v>25</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -11388,20 +11924,20 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
+      <c r="A75" s="44">
         <v>1991</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8" t="s">
+      <c r="C75" s="46"/>
+      <c r="D75" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E75" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="48">
         <v>20</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -11434,7 +11970,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="83" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11451,7 +11987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11 F32:F36 F29 F38 F40 F13:F25">
-    <cfRule type="containsText" dxfId="82" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11468,7 +12004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="81" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11485,7 +12021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="80" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11502,7 +12038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="79" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11519,7 +12055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="78" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11536,7 +12072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="77" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11553,7 +12089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="76" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11570,7 +12106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="75" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11587,7 +12123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11604,7 +12140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11621,7 +12157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11638,7 +12174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="71" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11655,7 +12191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F74">
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11672,7 +12208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:F76">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11689,7 +12225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11706,7 +12242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11723,7 +12259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="66" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11750,10 +12286,10 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11767,34 +12303,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -12589,7 +13125,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L36" s="20"/>
+      <c r="L36" s="19"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
@@ -12783,23 +13319,23 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+    <row r="45" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="33">
         <v>1960</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="B45" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -12808,18 +13344,18 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+      <c r="A46" s="49">
         <v>1961</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="53">
         <v>1</v>
       </c>
       <c r="G46" s="11" t="str">
@@ -12887,19 +13423,19 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+    <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="54">
         <v>1965</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="58">
         <v>1</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -12908,18 +13444,18 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+      <c r="A51" s="49">
         <v>1966</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="53">
         <v>0</v>
       </c>
       <c r="G51" s="11" t="str">
@@ -12987,19 +13523,19 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+    <row r="55" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="54">
         <v>1970</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="58">
         <v>1</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -13008,18 +13544,18 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+      <c r="A56" s="49">
         <v>1971</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="53">
         <v>1</v>
       </c>
       <c r="G56" s="11" t="str">
@@ -13087,19 +13623,19 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+    <row r="60" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="54">
         <v>1975</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="58">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -13108,18 +13644,18 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
+      <c r="A61" s="49">
         <v>1976</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="53">
         <v>1</v>
       </c>
       <c r="G61" s="11" t="str">
@@ -13187,19 +13723,19 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+    <row r="65" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="54">
         <v>1980</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="58">
         <v>2</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -13208,18 +13744,18 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
+      <c r="A66" s="49">
         <v>1981</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="53">
         <v>1</v>
       </c>
       <c r="G66" s="11" t="str">
@@ -13287,19 +13823,19 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+    <row r="70" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="54">
         <v>1985</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="58">
         <v>1</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -13308,18 +13844,18 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
+      <c r="A71" s="49">
         <v>1986</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="53">
         <v>1</v>
       </c>
       <c r="G71" s="11" t="str">
@@ -13387,19 +13923,19 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
+    <row r="75" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="54">
         <v>1990</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="58">
         <v>5</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -13408,20 +13944,20 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
+      <c r="A76" s="44">
         <v>1991</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8" t="s">
+      <c r="C76" s="46"/>
+      <c r="D76" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="E76" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="48">
         <v>2</v>
       </c>
       <c r="G76" s="11" t="str">
@@ -13538,7 +14074,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="65" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13555,7 +14091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13572,7 +14108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13589,7 +14125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13606,7 +14142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F18 F20:F25">
-    <cfRule type="containsText" dxfId="61" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13623,7 +14159,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13640,7 +14176,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="59" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13657,7 +14193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13674,7 +14210,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F42">
-    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13691,7 +14227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F75">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13708,7 +14244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F77">
-    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13725,7 +14261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="54" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13742,7 +14278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13759,7 +14295,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -13805,7 +14342,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13821,16 +14358,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -13840,15 +14377,15 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -14104,11 +14641,11 @@
         <v>7</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14425,7 +14962,7 @@
       <c r="E27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>0</v>
       </c>
       <c r="G27" s="11" t="str">
@@ -14591,7 +15128,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -14859,23 +15396,23 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+    <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="33">
         <v>1960</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="B46" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G46" s="11" t="str">
@@ -14884,18 +15421,18 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+      <c r="A47" s="49">
         <v>1961</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="53">
         <v>1</v>
       </c>
       <c r="G47" s="11" t="str">
@@ -14963,19 +15500,19 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="54">
         <v>1965</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="23">
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="60">
         <v>0</v>
       </c>
       <c r="G51" s="11" t="str">
@@ -14984,18 +15521,18 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+      <c r="A52" s="49">
         <v>1966</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="53">
         <v>1</v>
       </c>
       <c r="G52" s="11" t="str">
@@ -15056,26 +15593,26 @@
         <v>7</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="54">
         <v>1970</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="58">
         <v>1</v>
       </c>
       <c r="G56" s="11" t="str">
@@ -15084,18 +15621,18 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
+      <c r="A57" s="49">
         <v>1971</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="53">
         <v>1</v>
       </c>
       <c r="G57" s="11" t="str">
@@ -15163,19 +15700,19 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
+    <row r="61" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="54">
         <v>1975</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="58">
         <v>1</v>
       </c>
       <c r="G61" s="11" t="str">
@@ -15184,18 +15721,18 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6">
+      <c r="A62" s="49">
         <v>1976</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="53">
         <v>1</v>
       </c>
       <c r="G62" s="11" t="str">
@@ -15263,19 +15800,19 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
+    <row r="66" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="54">
         <v>1980</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="58">
         <v>3</v>
       </c>
       <c r="G66" s="11" t="str">
@@ -15284,18 +15821,18 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
+      <c r="A67" s="49">
         <v>1981</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="1">
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="53">
         <v>2</v>
       </c>
       <c r="G67" s="11" t="str">
@@ -15363,19 +15900,19 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
+    <row r="71" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="54">
         <v>1985</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="58">
         <v>1</v>
       </c>
       <c r="G71" s="11" t="str">
@@ -15384,18 +15921,18 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
+      <c r="A72" s="49">
         <v>1986</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="53">
         <v>1</v>
       </c>
       <c r="G72" s="11" t="str">
@@ -15463,19 +16000,19 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
+    <row r="76" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="54">
         <v>1990</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="58">
         <v>2</v>
       </c>
       <c r="G76" s="11" t="str">
@@ -15484,20 +16021,20 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="6">
+      <c r="A77" s="44">
         <v>1991</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8" t="s">
+      <c r="C77" s="46"/>
+      <c r="D77" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="1">
+      <c r="E77" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="48">
         <v>2</v>
       </c>
       <c r="G77" s="11" t="str">
@@ -15530,7 +16067,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6 F9:F18 F20:F32 F34:F42 F44:F46">
-    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -15545,7 +16082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F78">
-    <cfRule type="containsText" dxfId="49" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15562,7 +16099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="48" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -15577,7 +16114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -15592,7 +16129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="46" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15609,7 +16146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -15624,7 +16161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -15649,10 +16186,10 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15666,34 +16203,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -16689,23 +17226,23 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+    <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="33">
         <v>1960</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="B44" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -16714,20 +17251,20 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="A45" s="49">
         <v>1961</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="D45" s="51"/>
+      <c r="E45" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="53">
         <v>3</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -16801,21 +17338,21 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="54">
         <v>1965</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="D49" s="56"/>
+      <c r="E49" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="58">
         <v>0</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -16824,20 +17361,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+      <c r="A50" s="49">
         <v>1966</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="D50" s="51"/>
+      <c r="E50" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="53">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -16911,21 +17448,21 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="54">
         <v>1970</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="D54" s="56"/>
+      <c r="E54" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="58">
         <v>0</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -16934,20 +17471,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+      <c r="A55" s="49">
         <v>1971</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="D55" s="51"/>
+      <c r="E55" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="53">
         <v>0</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -17021,21 +17558,21 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
+    <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="54">
         <v>1975</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="D59" s="56"/>
+      <c r="E59" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="58">
         <v>1</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -17044,20 +17581,20 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+      <c r="A60" s="49">
         <v>1976</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="D60" s="51"/>
+      <c r="E60" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="53">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -17131,21 +17668,21 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
+    <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="54">
         <v>1980</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="D64" s="56"/>
+      <c r="E64" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="58">
         <v>1</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -17154,20 +17691,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+      <c r="A65" s="49">
         <v>1981</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="D65" s="51"/>
+      <c r="E65" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="53">
         <v>1</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -17241,21 +17778,21 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
+    <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="54">
         <v>1985</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="D69" s="56"/>
+      <c r="E69" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="58">
         <v>4</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -17264,20 +17801,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+      <c r="A70" s="49">
         <v>1986</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="D70" s="51"/>
+      <c r="E70" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="53">
         <v>1</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -17351,21 +17888,21 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
+    <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="54">
         <v>1990</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="D74" s="56"/>
+      <c r="E74" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="58">
         <v>3</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -17374,22 +17911,22 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
+      <c r="A75" s="44">
         <v>1991</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E75" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="48">
         <v>1</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -17616,12 +18153,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F76">
-    <cfRule type="containsText" dxfId="43" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -17743,10 +18280,10 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17762,34 +18299,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -18463,7 +19000,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11" t="str">
         <f t="shared" si="1"/>
@@ -18649,7 +19186,7 @@
       <c r="C39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -18711,23 +19248,23 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="33">
         <v>1960</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="B42" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -18736,20 +19273,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+      <c r="A43" s="49">
         <v>1961</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="D43" s="51"/>
+      <c r="E43" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="53">
         <v>3</v>
       </c>
       <c r="G43" s="11" t="str">
@@ -18871,21 +19408,21 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="54">
         <v>1967</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="D49" s="56"/>
+      <c r="E49" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="58">
         <v>0</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -18894,20 +19431,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+      <c r="A50" s="49">
         <v>1968</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="D50" s="51"/>
+      <c r="E50" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="53">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -18981,21 +19518,21 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="54">
         <v>1972</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="D54" s="56"/>
+      <c r="E54" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="58">
         <v>1</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -19004,20 +19541,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+      <c r="A55" s="49">
         <v>1973</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="D55" s="51"/>
+      <c r="E55" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="53">
         <v>1</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -19091,21 +19628,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
+    <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="54">
         <v>1977</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="D59" s="56"/>
+      <c r="E59" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="58">
         <v>1</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -19114,20 +19651,20 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+      <c r="A60" s="49">
         <v>1978</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="D60" s="51"/>
+      <c r="E60" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="53">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -19201,21 +19738,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
+    <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="54">
         <v>1982</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="D64" s="56"/>
+      <c r="E64" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="58">
         <v>3</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -19224,20 +19761,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+      <c r="A65" s="49">
         <v>1983</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="D65" s="51"/>
+      <c r="E65" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="53">
         <v>3</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -19311,21 +19848,21 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
+    <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="54">
         <v>1987</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="D69" s="56"/>
+      <c r="E69" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="58">
         <v>1</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -19334,20 +19871,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+      <c r="A70" s="49">
         <v>1988</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="D70" s="51"/>
+      <c r="E70" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="53">
         <v>1</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -19425,23 +19962,23 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
+    <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="54">
         <v>1990</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="58">
         <v>0</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -19450,22 +19987,22 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
+      <c r="A75" s="44">
         <v>1991</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E75" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="48">
         <v>0</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -19552,7 +20089,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F12 F14:F23 F27:F28 F30:F38 F25 F40:F44 F47:F73">
-    <cfRule type="containsText" dxfId="37" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -19567,7 +20104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -19582,7 +20119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -19596,8 +20133,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26 F24">
-    <cfRule type="containsText" dxfId="34" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F24 F26">
+    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -19612,7 +20149,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -19627,7 +20164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -19642,7 +20179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -19657,7 +20194,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F75">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -19672,7 +20209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F78">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19698,10 +20235,10 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="A70" sqref="A70:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19717,34 +20254,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -20602,7 +21139,7 @@
       <c r="C39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -20664,23 +21201,23 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="33">
         <v>1960</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="B42" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -20689,20 +21226,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+      <c r="A43" s="49">
         <v>1961</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="D43" s="51"/>
+      <c r="E43" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="53">
         <v>4</v>
       </c>
       <c r="G43" s="11" t="str">
@@ -20824,21 +21361,21 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="54">
         <v>1967</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="D49" s="56"/>
+      <c r="E49" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="58">
         <v>0</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -20847,20 +21384,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+      <c r="A50" s="49">
         <v>1968</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="D50" s="51"/>
+      <c r="E50" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="53">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -20934,21 +21471,21 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="54">
         <v>1972</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="D54" s="56"/>
+      <c r="E54" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="58">
         <v>0</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -20957,20 +21494,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+      <c r="A55" s="49">
         <v>1973</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="D55" s="51"/>
+      <c r="E55" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="53">
         <v>0</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -21044,21 +21581,21 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
+    <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="54">
         <v>1977</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="D59" s="56"/>
+      <c r="E59" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="58">
         <v>1</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -21067,20 +21604,20 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+      <c r="A60" s="49">
         <v>1978</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="D60" s="51"/>
+      <c r="E60" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="53">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -21154,21 +21691,21 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
+    <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="54">
         <v>1982</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="D64" s="56"/>
+      <c r="E64" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="58">
         <v>2</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -21177,20 +21714,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+      <c r="A65" s="49">
         <v>1983</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="D65" s="51"/>
+      <c r="E65" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="53">
         <v>1</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -21264,21 +21801,21 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
+    <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="54">
         <v>1987</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="D69" s="56"/>
+      <c r="E69" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="58">
         <v>2</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -21287,20 +21824,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+      <c r="A70" s="49">
         <v>1988</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="D70" s="51"/>
+      <c r="E70" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="53">
         <v>2</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -21376,23 +21913,23 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
+    <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="54">
         <v>1991</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="58">
         <v>1</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -21407,7 +21944,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F42 F45:F46">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -21418,13 +21955,81 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44 F47:F74">
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F43:F44 F47:F54">
+    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44 F47:F74">
+  <conditionalFormatting sqref="F43:F44 F47:F54">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F59">
+    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F59">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60:F64">
+    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60:F64">
     <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:F69">
+    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:F69">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:F74">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:F74">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -21441,7 +22046,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="23" operator="containsText" text="*-" id="{A1C96E77-9457-4987-85D0-65041EECFAAC}">
+          <x14:cfRule type="containsText" priority="31" operator="containsText" text="*-" id="{A1C96E77-9457-4987-85D0-65041EECFAAC}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!F3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -21465,10 +22070,10 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="A55" sqref="A55:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21484,34 +22089,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -22035,7 +22640,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -22083,7 +22688,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -22366,7 +22971,7 @@
       <c r="C39" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -22428,23 +23033,23 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+    <row r="42" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="33">
         <v>1960</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="B42" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -22453,20 +23058,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+      <c r="A43" s="49">
         <v>1961</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="D43" s="51"/>
+      <c r="E43" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="53">
         <v>9</v>
       </c>
       <c r="G43" s="11" t="str">
@@ -22588,21 +23193,21 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+    <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="54">
         <v>1967</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="D49" s="56"/>
+      <c r="E49" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="58">
         <v>0</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -22611,20 +23216,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+      <c r="A50" s="49">
         <v>1968</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="D50" s="51"/>
+      <c r="E50" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="53">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -22698,21 +23303,21 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+    <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="54">
         <v>1972</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1">
+      <c r="D54" s="56"/>
+      <c r="E54" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="58">
         <v>0</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -22721,20 +23326,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+      <c r="A55" s="49">
         <v>1973</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1">
+      <c r="D55" s="51"/>
+      <c r="E55" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="53">
         <v>0</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -22808,21 +23413,21 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
+    <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="54">
         <v>1977</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1">
+      <c r="D59" s="56"/>
+      <c r="E59" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="58">
         <v>0</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -22831,20 +23436,20 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+      <c r="A60" s="49">
         <v>1978</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1">
+      <c r="D60" s="51"/>
+      <c r="E60" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="53">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -22918,21 +23523,21 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
+    <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="54">
         <v>1982</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="1">
+      <c r="D64" s="56"/>
+      <c r="E64" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="58">
         <v>1</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -22941,20 +23546,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+      <c r="A65" s="49">
         <v>1983</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1">
+      <c r="D65" s="51"/>
+      <c r="E65" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="53">
         <v>1</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -23028,21 +23633,21 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
+    <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="54">
         <v>1987</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="D69" s="56"/>
+      <c r="E69" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="58">
         <v>1</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -23051,20 +23656,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+      <c r="A70" s="49">
         <v>1988</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="D70" s="51"/>
+      <c r="E70" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="53">
         <v>1</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -23140,23 +23745,23 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
+    <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="54">
         <v>1991</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="58">
         <v>2</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -23171,6 +23776,57 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F42 F45:F46">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F44 F47:F49">
+    <cfRule type="containsText" dxfId="64" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43:F44 F47:F49">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F54">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F54">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F59">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55:F59">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -23182,13 +23838,47 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44 F47:F74">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
+  <conditionalFormatting sqref="F60:F64">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44 F47:F74">
+  <conditionalFormatting sqref="F60:F64">
     <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:F69">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F65:F69">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:F74">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:F74">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -23205,7 +23895,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" text="*-" id="{8AE4D441-51E7-4FBE-B7D4-1546BA56D6D5}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" text="*-" id="{8AE4D441-51E7-4FBE-B7D4-1546BA56D6D5}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!F3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -23229,10 +23919,10 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23248,34 +23938,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -23388,7 +24078,7 @@
       <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -23412,7 +24102,7 @@
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -23436,7 +24126,7 @@
       <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -23460,7 +24150,7 @@
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -23484,7 +24174,7 @@
       <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -24271,23 +24961,23 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+    <row r="44" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="33">
         <v>1960</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10" t="s">
+      <c r="B44" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="43" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -24296,20 +24986,20 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="A45" s="49">
         <v>1961</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="D45" s="51"/>
+      <c r="E45" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="53">
         <v>0</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -24431,21 +25121,21 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+    <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="54">
         <v>1967</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="D51" s="56"/>
+      <c r="E51" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="58">
         <v>0</v>
       </c>
       <c r="G51" s="11" t="str">
@@ -24454,20 +25144,20 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+      <c r="A52" s="49">
         <v>1968</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="D52" s="51"/>
+      <c r="E52" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="53">
         <v>0</v>
       </c>
       <c r="G52" s="11" t="str">
@@ -24541,21 +25231,21 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+    <row r="56" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="54">
         <v>1972</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="1">
+      <c r="D56" s="56"/>
+      <c r="E56" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="58">
         <v>0</v>
       </c>
       <c r="G56" s="11" t="str">
@@ -24564,20 +25254,20 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
+      <c r="A57" s="49">
         <v>1973</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="1">
+      <c r="D57" s="51"/>
+      <c r="E57" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="53">
         <v>0</v>
       </c>
       <c r="G57" s="11" t="str">
@@ -24651,21 +25341,21 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
+    <row r="61" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="54">
         <v>1977</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="1">
+      <c r="D61" s="56"/>
+      <c r="E61" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="58">
         <v>0</v>
       </c>
       <c r="G61" s="11" t="str">
@@ -24674,20 +25364,20 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6">
+      <c r="A62" s="49">
         <v>1978</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="1">
+      <c r="D62" s="51"/>
+      <c r="E62" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="53">
         <v>0</v>
       </c>
       <c r="G62" s="11" t="str">
@@ -24761,21 +25451,21 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
+    <row r="66" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="54">
         <v>1982</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="D66" s="56"/>
+      <c r="E66" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="58">
         <v>2</v>
       </c>
       <c r="G66" s="11" t="str">
@@ -24784,20 +25474,20 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
+      <c r="A67" s="49">
         <v>1983</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="1">
+      <c r="D67" s="51"/>
+      <c r="E67" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="53">
         <v>1</v>
       </c>
       <c r="G67" s="11" t="str">
@@ -24871,23 +25561,23 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
+    <row r="71" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="54">
         <v>1986</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="E71" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="58">
         <v>0</v>
       </c>
       <c r="G71" s="11" t="str">
@@ -24896,20 +25586,20 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
+      <c r="A72" s="49">
         <v>1987</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="D72" s="51"/>
+      <c r="E72" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="53">
         <v>1</v>
       </c>
       <c r="G72" s="11" t="str">
@@ -24985,23 +25675,23 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
+    <row r="76" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="54">
         <v>1989</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="E76" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="58">
         <v>0</v>
       </c>
       <c r="G76" s="11" t="str">
@@ -25101,9 +25791,69 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F5 F9:F11 F7 F45 F48:F66 F72:F73 F75 F77:F79 F70">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F5 F9:F11 F7 F45 F48:F51 F77:F79">
+    <cfRule type="containsText" dxfId="52" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F44">
+    <cfRule type="containsText" dxfId="50" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="49" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="containsText" dxfId="48" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -25116,9 +25866,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="containsText" dxfId="47" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -25131,54 +25881,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F44">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="20" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -25191,10 +25896,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
+  <conditionalFormatting sqref="F52:F56">
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F52))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52:F56">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -25206,10 +25913,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
+  <conditionalFormatting sqref="F57:F61">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:F61">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -25221,10 +25930,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
+  <conditionalFormatting sqref="F62:F66">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62:F66">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -25236,12 +25947,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F69">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F67:F71">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:F69">
+  <conditionalFormatting sqref="F67:F71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -25253,10 +25964,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F80))))</formula>
+  <conditionalFormatting sqref="F72:F76">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:F76">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Russia/#Russia#USSR#Regular#[1921-1991]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#USSR#Regular#[1921-1991]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8C6550-BAC8-4804-BFAF-A3169ECBC554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B7BF6D-8377-4AD6-99A8-7FB7826CCD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="полкопейки" sheetId="12" r:id="rId1"/>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="74">
   <si>
     <t>-</t>
   </si>
@@ -1084,25 +1084,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1163,20 +1144,40 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="112">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2029,263 +2030,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFE5DFEC"/>
           <bgColor rgb="FFE5DFEC"/>
         </patternFill>
@@ -2310,9 +2054,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="143"/>
-      <tableStyleElement type="firstRowStripe" dxfId="142"/>
-      <tableStyleElement type="secondRowStripe" dxfId="141"/>
+      <tableStyleElement type="headerRow" dxfId="111"/>
+      <tableStyleElement type="firstRowStripe" dxfId="110"/>
+      <tableStyleElement type="secondRowStripe" dxfId="109"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2334,9 +2078,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="139" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2624,16 +2368,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -2643,8 +2387,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4358,7 +4102,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F7 F9:F10">
-    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4375,7 +4119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="136" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4392,7 +4136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="135" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4409,7 +4153,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="134" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4426,7 +4170,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="133" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4443,7 +4187,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="132" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4460,11 +4204,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F13 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73">
-    <cfRule type="containsText" dxfId="131" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F13 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73">
+  <conditionalFormatting sqref="F13 F11 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4477,11 +4221,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F14 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72">
-    <cfRule type="containsText" dxfId="130" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12 F14 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72">
+  <conditionalFormatting sqref="F14 F12 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4522,16 +4266,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -4541,8 +4285,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5542,20 +5286,20 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="49">
+      <c r="A44" s="42">
         <v>1961</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="53">
+      <c r="D44" s="44"/>
+      <c r="E44" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="46">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -5678,20 +5422,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="54">
+      <c r="A50" s="47">
         <v>1967</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="58">
+      <c r="D50" s="49"/>
+      <c r="E50" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="51">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -5700,20 +5444,20 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="49">
+      <c r="A51" s="42">
         <v>1968</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="53">
+      <c r="D51" s="44"/>
+      <c r="E51" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="46">
         <v>0</v>
       </c>
       <c r="G51" s="11" t="str">
@@ -5788,20 +5532,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="54">
+      <c r="A55" s="47">
         <v>1972</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="58">
+      <c r="D55" s="49"/>
+      <c r="E55" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="51">
         <v>0</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -5810,20 +5554,20 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="49">
+      <c r="A56" s="42">
         <v>1973</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="53">
+      <c r="D56" s="44"/>
+      <c r="E56" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="46">
         <v>0</v>
       </c>
       <c r="G56" s="11" t="str">
@@ -5898,22 +5642,22 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="54">
+      <c r="A60" s="47">
         <v>1976</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="56" t="s">
+      <c r="D60" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="58">
+      <c r="E60" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="51">
         <v>0</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -5922,20 +5666,20 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="49">
+      <c r="A61" s="42">
         <v>1977</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="53">
+      <c r="D61" s="44"/>
+      <c r="E61" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="46">
         <v>0</v>
       </c>
       <c r="G61" s="11" t="str">
@@ -6010,20 +5754,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="54">
+      <c r="A65" s="47">
         <v>1981</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="58">
+      <c r="D65" s="49"/>
+      <c r="E65" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="51">
         <v>0</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -6032,20 +5776,20 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="49">
+      <c r="A66" s="42">
         <v>1982</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="51"/>
-      <c r="E66" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="53">
+      <c r="D66" s="44"/>
+      <c r="E66" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="46">
         <v>0</v>
       </c>
       <c r="G66" s="11" t="str">
@@ -6120,20 +5864,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="54">
+      <c r="A70" s="47">
         <v>1986</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="58">
+      <c r="D70" s="49"/>
+      <c r="E70" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="51">
         <v>0</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -6142,20 +5886,20 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="49">
+      <c r="A71" s="42">
         <v>1987</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="51"/>
-      <c r="E71" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="53">
+      <c r="D71" s="44"/>
+      <c r="E71" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="46">
         <v>0</v>
       </c>
       <c r="G71" s="11" t="str">
@@ -6232,20 +5976,20 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="54">
+      <c r="A75" s="47">
         <v>1990</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="58">
+      <c r="D75" s="49"/>
+      <c r="E75" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="51">
         <v>0</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -6348,7 +6092,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F43 F77:F78">
-    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -6363,7 +6107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6378,7 +6122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -6393,7 +6137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -6408,7 +6152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6423,7 +6167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6438,7 +6182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F50 F44">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -6453,7 +6197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -6468,7 +6212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6483,7 +6227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F55">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6500,7 +6244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F60">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6517,7 +6261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F65">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6534,7 +6278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66:F70">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6551,7 +6295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F75">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6577,7 +6321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE65B3A-DF3C-4D6B-B409-1956B9489219}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6596,16 +6340,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
@@ -6615,8 +6359,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -8366,7 +8110,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F72 F74">
-    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -8381,7 +8125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -8424,16 +8168,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
@@ -8443,8 +8187,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -10170,7 +9914,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F72">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10185,7 +9929,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10293,10 +10037,10 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10311,16 +10055,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -10330,8 +10074,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
@@ -10501,7 +10245,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -11052,7 +10796,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -11172,7 +10916,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="11" t="str">
         <f t="shared" si="0"/>
@@ -11303,19 +11047,19 @@
       <c r="A44" s="33">
         <v>1960</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="43" t="s">
+      <c r="B44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -11324,18 +11068,18 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="49">
+      <c r="A45" s="42">
         <v>1961</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="59">
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="52">
         <v>1</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -11404,18 +11148,18 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="54">
+      <c r="A49" s="47">
         <v>1965</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="58">
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="51">
         <v>1</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -11424,18 +11168,18 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49">
+      <c r="A50" s="42">
         <v>1966</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="53">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="46">
         <v>1</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -11504,18 +11248,18 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="54">
+      <c r="A54" s="47">
         <v>1970</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="58">
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="51">
         <v>2</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -11524,18 +11268,18 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="49">
+      <c r="A55" s="42">
         <v>1971</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="53">
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="46">
         <v>3</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -11604,18 +11348,18 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="54">
+      <c r="A59" s="47">
         <v>1975</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="58">
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="51">
         <v>3</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -11624,18 +11368,18 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="49">
+      <c r="A60" s="42">
         <v>1976</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="53">
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="46">
         <v>2</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -11704,18 +11448,18 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="54">
+      <c r="A64" s="47">
         <v>1980</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="58">
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="51">
         <v>2</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -11724,18 +11468,18 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="49">
+      <c r="A65" s="42">
         <v>1981</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="53">
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="46">
         <v>3</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -11804,18 +11548,18 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="54">
+      <c r="A69" s="47">
         <v>1985</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="58">
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="51">
         <v>5</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -11824,18 +11568,18 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="49">
+      <c r="A70" s="42">
         <v>1986</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="53">
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="46">
         <v>2</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -11904,18 +11648,18 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="54">
+      <c r="A74" s="47">
         <v>1990</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="58">
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="51">
         <v>25</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -11924,20 +11668,20 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="44">
+      <c r="A75" s="37">
         <v>1991</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46" t="s">
+      <c r="C75" s="39"/>
+      <c r="D75" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="48">
+      <c r="E75" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="41">
         <v>20</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -11970,7 +11714,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="129" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11987,7 +11731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11 F32:F36 F29 F38 F40 F13:F25">
-    <cfRule type="containsText" dxfId="128" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12004,7 +11748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="127" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12021,7 +11765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="126" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12038,7 +11782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="125" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12055,7 +11799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="124" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12072,7 +11816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="123" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12089,7 +11833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="122" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12106,7 +11850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="121" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12123,7 +11867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12140,7 +11884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="119" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12157,7 +11901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="118" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12174,7 +11918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="117" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12191,7 +11935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F74">
-    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12208,7 +11952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:F76">
-    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12225,7 +11969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="114" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12242,7 +11986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12259,7 +12003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12286,10 +12030,10 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R42" sqref="R42"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12303,16 +12047,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -12322,8 +12066,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -12786,7 +12530,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -12834,7 +12578,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -12978,7 +12722,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -13323,19 +13067,19 @@
       <c r="A45" s="33">
         <v>1960</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="43" t="s">
+      <c r="B45" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -13344,18 +13088,18 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="49">
+      <c r="A46" s="42">
         <v>1961</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="53">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="46">
         <v>1</v>
       </c>
       <c r="G46" s="11" t="str">
@@ -13424,18 +13168,18 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="54">
+      <c r="A50" s="47">
         <v>1965</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="58">
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="51">
         <v>1</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -13444,18 +13188,18 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="49">
+      <c r="A51" s="42">
         <v>1966</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="53">
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="46">
         <v>0</v>
       </c>
       <c r="G51" s="11" t="str">
@@ -13496,7 +13240,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="11" t="str">
         <f t="shared" si="0"/>
@@ -13524,18 +13268,18 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="54">
+      <c r="A55" s="47">
         <v>1970</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="58">
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="51">
         <v>1</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -13544,18 +13288,18 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="49">
+      <c r="A56" s="42">
         <v>1971</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="53">
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="46">
         <v>1</v>
       </c>
       <c r="G56" s="11" t="str">
@@ -13616,7 +13360,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="11" t="str">
         <f t="shared" si="0"/>
@@ -13624,18 +13368,18 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="54">
+      <c r="A60" s="47">
         <v>1975</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="58">
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="51">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -13644,18 +13388,18 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="49">
+      <c r="A61" s="42">
         <v>1976</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="53">
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="46">
         <v>1</v>
       </c>
       <c r="G61" s="11" t="str">
@@ -13724,18 +13468,18 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="54">
+      <c r="A65" s="47">
         <v>1980</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="58">
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="51">
         <v>2</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -13744,18 +13488,18 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="49">
+      <c r="A66" s="42">
         <v>1981</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="53">
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="46">
         <v>1</v>
       </c>
       <c r="G66" s="11" t="str">
@@ -13824,18 +13568,18 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="54">
+      <c r="A70" s="47">
         <v>1985</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="58">
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="51">
         <v>1</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -13844,18 +13588,18 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="49">
+      <c r="A71" s="42">
         <v>1986</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="53">
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="46">
         <v>1</v>
       </c>
       <c r="G71" s="11" t="str">
@@ -13924,18 +13668,18 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="54">
+      <c r="A75" s="47">
         <v>1990</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="58">
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="51">
         <v>5</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -13944,20 +13688,20 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="44">
+      <c r="A76" s="37">
         <v>1991</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46" t="s">
+      <c r="C76" s="39"/>
+      <c r="D76" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="48">
+      <c r="E76" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="41">
         <v>2</v>
       </c>
       <c r="G76" s="11" t="str">
@@ -14074,7 +13818,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="111" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14091,7 +13835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14108,7 +13852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14125,7 +13869,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="108" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14142,7 +13886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F18 F20:F25">
-    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14159,7 +13903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="106" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14176,7 +13920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="105" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14193,7 +13937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="104" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14210,7 +13954,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F42">
-    <cfRule type="containsText" dxfId="103" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14227,7 +13971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F75">
-    <cfRule type="containsText" dxfId="102" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14244,7 +13988,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F77">
-    <cfRule type="containsText" dxfId="101" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14261,7 +14005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="100" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14278,7 +14022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14339,10 +14083,10 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14358,16 +14102,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -14377,8 +14121,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -14685,7 +14429,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -14819,7 +14563,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -14891,7 +14635,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -14963,7 +14707,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -15082,7 +14826,7 @@
       <c r="E32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="11" t="str">
@@ -15107,7 +14851,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="11"/>
     </row>
@@ -15272,7 +15016,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -15400,19 +15144,19 @@
       <c r="A46" s="33">
         <v>1960</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46" s="43" t="s">
+      <c r="B46" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G46" s="11" t="str">
@@ -15421,18 +15165,18 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="49">
+      <c r="A47" s="42">
         <v>1961</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="53">
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="46">
         <v>1</v>
       </c>
       <c r="G47" s="11" t="str">
@@ -15501,18 +15245,18 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="54">
+      <c r="A51" s="47">
         <v>1965</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="60">
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="53">
         <v>0</v>
       </c>
       <c r="G51" s="11" t="str">
@@ -15521,18 +15265,18 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="49">
+      <c r="A52" s="42">
         <v>1966</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="53">
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="46">
         <v>1</v>
       </c>
       <c r="G52" s="11" t="str">
@@ -15601,18 +15345,18 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="54">
+      <c r="A56" s="47">
         <v>1970</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="58">
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="51">
         <v>1</v>
       </c>
       <c r="G56" s="11" t="str">
@@ -15621,18 +15365,18 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="49">
+      <c r="A57" s="42">
         <v>1971</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="53">
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="46">
         <v>1</v>
       </c>
       <c r="G57" s="11" t="str">
@@ -15701,18 +15445,18 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="54">
+      <c r="A61" s="47">
         <v>1975</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="58">
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="51">
         <v>1</v>
       </c>
       <c r="G61" s="11" t="str">
@@ -15721,18 +15465,18 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="49">
+      <c r="A62" s="42">
         <v>1976</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="53">
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="46">
         <v>1</v>
       </c>
       <c r="G62" s="11" t="str">
@@ -15801,18 +15545,18 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="54">
+      <c r="A66" s="47">
         <v>1980</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="58">
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="51">
         <v>3</v>
       </c>
       <c r="G66" s="11" t="str">
@@ -15821,18 +15565,18 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="49">
+      <c r="A67" s="42">
         <v>1981</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="53">
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="46">
         <v>2</v>
       </c>
       <c r="G67" s="11" t="str">
@@ -15901,18 +15645,18 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="54">
+      <c r="A71" s="47">
         <v>1985</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="58">
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="51">
         <v>1</v>
       </c>
       <c r="G71" s="11" t="str">
@@ -15921,18 +15665,18 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="49">
+      <c r="A72" s="42">
         <v>1986</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="53">
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="46">
         <v>1</v>
       </c>
       <c r="G72" s="11" t="str">
@@ -16001,18 +15745,18 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="54">
+      <c r="A76" s="47">
         <v>1990</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="58">
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="51">
         <v>2</v>
       </c>
       <c r="G76" s="11" t="str">
@@ -16021,20 +15765,20 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="44">
+      <c r="A77" s="37">
         <v>1991</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46" t="s">
+      <c r="C77" s="39"/>
+      <c r="D77" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="48">
+      <c r="E77" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="41">
         <v>2</v>
       </c>
       <c r="G77" s="11" t="str">
@@ -16066,8 +15810,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F6 F9:F18 F20:F32 F34:F42 F44:F46">
-    <cfRule type="containsText" dxfId="96" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F6 F9:F18 F34:F42 F44:F46 F20:F32">
+    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -16082,7 +15826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F78">
-    <cfRule type="containsText" dxfId="95" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16099,7 +15843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="94" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -16114,7 +15858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -16129,7 +15873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16146,7 +15890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="91" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -16161,7 +15905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="containsText" dxfId="90" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -16186,10 +15930,10 @@
   <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M65" sqref="M65"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16203,16 +15947,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -16222,8 +15966,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -16497,7 +16241,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -17230,19 +16974,19 @@
       <c r="A44" s="33">
         <v>1960</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="43" t="s">
+      <c r="B44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -17251,20 +16995,20 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="49">
+      <c r="A45" s="42">
         <v>1961</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="53">
+      <c r="D45" s="44"/>
+      <c r="E45" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="46">
         <v>3</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -17339,20 +17083,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="54">
+      <c r="A49" s="47">
         <v>1965</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="58">
+      <c r="D49" s="49"/>
+      <c r="E49" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="51">
         <v>0</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -17361,20 +17105,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49">
+      <c r="A50" s="42">
         <v>1966</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="53">
+      <c r="D50" s="44"/>
+      <c r="E50" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="46">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -17449,20 +17193,20 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="54">
+      <c r="A54" s="47">
         <v>1970</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="58">
+      <c r="D54" s="49"/>
+      <c r="E54" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="51">
         <v>0</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -17471,20 +17215,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="49">
+      <c r="A55" s="42">
         <v>1971</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="53">
+      <c r="D55" s="44"/>
+      <c r="E55" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="46">
         <v>0</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -17559,20 +17303,20 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="54">
+      <c r="A59" s="47">
         <v>1975</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="58">
+      <c r="D59" s="49"/>
+      <c r="E59" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="51">
         <v>1</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -17581,20 +17325,20 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="49">
+      <c r="A60" s="42">
         <v>1976</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="53">
+      <c r="D60" s="44"/>
+      <c r="E60" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="46">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -17669,20 +17413,20 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="54">
+      <c r="A64" s="47">
         <v>1980</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="58">
+      <c r="D64" s="49"/>
+      <c r="E64" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="51">
         <v>1</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -17691,20 +17435,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="49">
+      <c r="A65" s="42">
         <v>1981</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="53">
+      <c r="D65" s="44"/>
+      <c r="E65" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="46">
         <v>1</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -17779,20 +17523,20 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="54">
+      <c r="A69" s="47">
         <v>1985</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="58">
+      <c r="D69" s="49"/>
+      <c r="E69" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="51">
         <v>4</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -17801,20 +17545,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="49">
+      <c r="A70" s="42">
         <v>1986</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="53">
+      <c r="D70" s="44"/>
+      <c r="E70" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="46">
         <v>1</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -17889,20 +17633,20 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="54">
+      <c r="A74" s="47">
         <v>1990</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="56"/>
-      <c r="E74" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="58">
+      <c r="D74" s="49"/>
+      <c r="E74" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="51">
         <v>3</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -17911,22 +17655,22 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="44">
+      <c r="A75" s="37">
         <v>1991</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="48">
+      <c r="E75" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="41">
         <v>1</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -18153,12 +17897,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F76">
-    <cfRule type="containsText" dxfId="89" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="88" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -18280,10 +18024,10 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -18299,16 +18043,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
@@ -18318,8 +18062,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -18438,7 +18182,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -19097,7 +18841,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="11" t="str">
         <f t="shared" si="1"/>
@@ -19252,19 +18996,19 @@
       <c r="A42" s="33">
         <v>1960</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="43" t="s">
+      <c r="B42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -19273,20 +19017,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49">
+      <c r="A43" s="42">
         <v>1961</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="53">
+      <c r="D43" s="44"/>
+      <c r="E43" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="46">
         <v>3</v>
       </c>
       <c r="G43" s="11" t="str">
@@ -19409,20 +19153,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="54">
+      <c r="A49" s="47">
         <v>1967</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="58">
+      <c r="D49" s="49"/>
+      <c r="E49" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="51">
         <v>0</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -19431,20 +19175,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49">
+      <c r="A50" s="42">
         <v>1968</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="53">
+      <c r="D50" s="44"/>
+      <c r="E50" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="46">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -19519,20 +19263,20 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="54">
+      <c r="A54" s="47">
         <v>1972</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="58">
+      <c r="D54" s="49"/>
+      <c r="E54" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="51">
         <v>1</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -19541,20 +19285,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="49">
+      <c r="A55" s="42">
         <v>1973</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="53">
+      <c r="D55" s="44"/>
+      <c r="E55" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="46">
         <v>1</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -19629,20 +19373,20 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="54">
+      <c r="A59" s="47">
         <v>1977</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="58">
+      <c r="D59" s="49"/>
+      <c r="E59" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="51">
         <v>1</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -19651,20 +19395,20 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="49">
+      <c r="A60" s="42">
         <v>1978</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="53">
+      <c r="D60" s="44"/>
+      <c r="E60" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="46">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -19739,20 +19483,20 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="54">
+      <c r="A64" s="47">
         <v>1982</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="58">
+      <c r="D64" s="49"/>
+      <c r="E64" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="51">
         <v>3</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -19761,20 +19505,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="49">
+      <c r="A65" s="42">
         <v>1983</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="53">
+      <c r="D65" s="44"/>
+      <c r="E65" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="46">
         <v>3</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -19849,20 +19593,20 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="54">
+      <c r="A69" s="47">
         <v>1987</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="58">
+      <c r="D69" s="49"/>
+      <c r="E69" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="51">
         <v>1</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -19871,20 +19615,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="49">
+      <c r="A70" s="42">
         <v>1988</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="53">
+      <c r="D70" s="44"/>
+      <c r="E70" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="46">
         <v>1</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -19963,22 +19707,22 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="54">
+      <c r="A74" s="47">
         <v>1990</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="56" t="s">
+      <c r="D74" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="58">
+      <c r="E74" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="51">
         <v>0</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -19987,22 +19731,22 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="44">
+      <c r="A75" s="37">
         <v>1991</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C75" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D75" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="48">
+      <c r="E75" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="41">
         <v>0</v>
       </c>
       <c r="G75" s="11" t="str">
@@ -20089,7 +19833,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F12 F14:F23 F27:F28 F30:F38 F25 F40:F44 F47:F73">
-    <cfRule type="containsText" dxfId="83" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -20104,7 +19848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="82" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -20119,7 +19863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -20133,8 +19877,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F26">
-    <cfRule type="containsText" dxfId="80" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F26 F24">
+    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -20149,7 +19893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -20164,7 +19908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -20179,7 +19923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="77" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -20194,7 +19938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F75">
-    <cfRule type="containsText" dxfId="76" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -20209,7 +19953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F78">
-    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20235,10 +19979,10 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A70" sqref="A70:F74"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -20254,16 +19998,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
@@ -20273,8 +20017,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -20394,7 +20138,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -21205,19 +20949,19 @@
       <c r="A42" s="33">
         <v>1960</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="43" t="s">
+      <c r="B42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -21226,20 +20970,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49">
+      <c r="A43" s="42">
         <v>1961</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="53">
+      <c r="D43" s="44"/>
+      <c r="E43" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="46">
         <v>4</v>
       </c>
       <c r="G43" s="11" t="str">
@@ -21362,20 +21106,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="54">
+      <c r="A49" s="47">
         <v>1967</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="58">
+      <c r="D49" s="49"/>
+      <c r="E49" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="51">
         <v>0</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -21384,20 +21128,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49">
+      <c r="A50" s="42">
         <v>1968</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="53">
+      <c r="D50" s="44"/>
+      <c r="E50" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="46">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -21472,20 +21216,20 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="54">
+      <c r="A54" s="47">
         <v>1972</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="58">
+      <c r="D54" s="49"/>
+      <c r="E54" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="51">
         <v>0</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -21494,20 +21238,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="49">
+      <c r="A55" s="42">
         <v>1973</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="53">
+      <c r="D55" s="44"/>
+      <c r="E55" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="46">
         <v>0</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -21582,20 +21326,20 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="54">
+      <c r="A59" s="47">
         <v>1977</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="58">
+      <c r="D59" s="49"/>
+      <c r="E59" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="51">
         <v>1</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -21604,20 +21348,20 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="49">
+      <c r="A60" s="42">
         <v>1978</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="53">
+      <c r="D60" s="44"/>
+      <c r="E60" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="46">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -21692,20 +21436,20 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="54">
+      <c r="A64" s="47">
         <v>1982</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="58">
+      <c r="D64" s="49"/>
+      <c r="E64" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="51">
         <v>2</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -21714,20 +21458,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="49">
+      <c r="A65" s="42">
         <v>1983</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="53">
+      <c r="D65" s="44"/>
+      <c r="E65" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="46">
         <v>1</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -21802,20 +21546,20 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="54">
+      <c r="A69" s="47">
         <v>1987</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="58">
+      <c r="D69" s="49"/>
+      <c r="E69" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="51">
         <v>2</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -21824,20 +21568,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="49">
+      <c r="A70" s="42">
         <v>1988</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="53">
+      <c r="D70" s="44"/>
+      <c r="E70" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="46">
         <v>2</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -21914,22 +21658,22 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="54">
+      <c r="A74" s="47">
         <v>1991</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="56" t="s">
+      <c r="D74" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="58">
+      <c r="E74" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="51">
         <v>1</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -21956,7 +21700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44 F47:F54">
-    <cfRule type="containsText" dxfId="74" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21973,7 +21717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:F59">
-    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21990,7 +21734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F64">
-    <cfRule type="containsText" dxfId="69" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22007,7 +21751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F69">
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22024,7 +21768,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:F74">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22089,16 +21833,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
@@ -22108,8 +21852,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -23037,19 +22781,19 @@
       <c r="A42" s="33">
         <v>1960</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="43" t="s">
+      <c r="B42" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="str">
@@ -23058,20 +22802,20 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49">
+      <c r="A43" s="42">
         <v>1961</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="53">
+      <c r="D43" s="44"/>
+      <c r="E43" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="46">
         <v>9</v>
       </c>
       <c r="G43" s="11" t="str">
@@ -23194,20 +22938,20 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="54">
+      <c r="A49" s="47">
         <v>1967</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="58">
+      <c r="D49" s="49"/>
+      <c r="E49" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="51">
         <v>0</v>
       </c>
       <c r="G49" s="11" t="str">
@@ -23216,20 +22960,20 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49">
+      <c r="A50" s="42">
         <v>1968</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="53">
+      <c r="D50" s="44"/>
+      <c r="E50" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="46">
         <v>0</v>
       </c>
       <c r="G50" s="11" t="str">
@@ -23304,20 +23048,20 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="54">
+      <c r="A54" s="47">
         <v>1972</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C54" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="58">
+      <c r="D54" s="49"/>
+      <c r="E54" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="51">
         <v>0</v>
       </c>
       <c r="G54" s="11" t="str">
@@ -23326,20 +23070,20 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="49">
+      <c r="A55" s="42">
         <v>1973</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="53">
+      <c r="D55" s="44"/>
+      <c r="E55" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="46">
         <v>0</v>
       </c>
       <c r="G55" s="11" t="str">
@@ -23414,20 +23158,20 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="54">
+      <c r="A59" s="47">
         <v>1977</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="58">
+      <c r="D59" s="49"/>
+      <c r="E59" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="51">
         <v>0</v>
       </c>
       <c r="G59" s="11" t="str">
@@ -23436,20 +23180,20 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="49">
+      <c r="A60" s="42">
         <v>1978</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="53">
+      <c r="D60" s="44"/>
+      <c r="E60" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="46">
         <v>1</v>
       </c>
       <c r="G60" s="11" t="str">
@@ -23524,20 +23268,20 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="54">
+      <c r="A64" s="47">
         <v>1982</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="58">
+      <c r="D64" s="49"/>
+      <c r="E64" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="51">
         <v>1</v>
       </c>
       <c r="G64" s="11" t="str">
@@ -23546,20 +23290,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="49">
+      <c r="A65" s="42">
         <v>1983</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="53">
+      <c r="D65" s="44"/>
+      <c r="E65" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="46">
         <v>1</v>
       </c>
       <c r="G65" s="11" t="str">
@@ -23634,20 +23378,20 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="54">
+      <c r="A69" s="47">
         <v>1987</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="58">
+      <c r="D69" s="49"/>
+      <c r="E69" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="51">
         <v>1</v>
       </c>
       <c r="G69" s="11" t="str">
@@ -23656,20 +23400,20 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="49">
+      <c r="A70" s="42">
         <v>1988</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="53">
+      <c r="D70" s="44"/>
+      <c r="E70" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="46">
         <v>1</v>
       </c>
       <c r="G70" s="11" t="str">
@@ -23746,22 +23490,22 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="54">
+      <c r="A74" s="47">
         <v>1991</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="56" t="s">
+      <c r="C74" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="56" t="s">
+      <c r="D74" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="58">
+      <c r="E74" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="51">
         <v>2</v>
       </c>
       <c r="G74" s="11" t="str">
@@ -23788,7 +23532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44 F47:F49">
-    <cfRule type="containsText" dxfId="64" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23805,7 +23549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F54">
-    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F50))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23822,7 +23566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:F59">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23839,7 +23583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:F64">
-    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23856,7 +23600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65:F69">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F65))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23873,7 +23617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:F74">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23918,11 +23662,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A52" sqref="A52:F66"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23938,16 +23682,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
@@ -23957,8 +23701,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -24965,19 +24709,19 @@
       <c r="A44" s="33">
         <v>1960</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="43" t="s">
+      <c r="B44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="36" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="11" t="str">
@@ -24986,20 +24730,20 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="49">
+      <c r="A45" s="42">
         <v>1961</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="53">
+      <c r="D45" s="44"/>
+      <c r="E45" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="46">
         <v>0</v>
       </c>
       <c r="G45" s="11" t="str">
@@ -25114,7 +24858,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="11" t="str">
         <f t="shared" si="0"/>
@@ -25122,20 +24866,20 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="54">
+      <c r="A51" s="47">
         <v>1967</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="58">
+      <c r="D51" s="49"/>
+      <c r="E51" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="51">
         <v>0</v>
       </c>
       <c r="G51" s="11" t="str">
@@ -25144,20 +24888,20 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="49">
+      <c r="A52" s="42">
         <v>1968</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="51"/>
-      <c r="E52" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="53">
+      <c r="D52" s="44"/>
+      <c r="E52" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="46">
         <v>0</v>
       </c>
       <c r="G52" s="11" t="str">
@@ -25180,7 +24924,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="11" t="str">
         <f t="shared" si="0"/>
@@ -25232,20 +24976,20 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="54">
+      <c r="A56" s="47">
         <v>1972</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="58">
+      <c r="D56" s="49"/>
+      <c r="E56" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="51">
         <v>0</v>
       </c>
       <c r="G56" s="11" t="str">
@@ -25254,20 +24998,20 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="49">
+      <c r="A57" s="42">
         <v>1973</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="53">
+      <c r="D57" s="44"/>
+      <c r="E57" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="46">
         <v>0</v>
       </c>
       <c r="G57" s="11" t="str">
@@ -25342,21 +25086,21 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="54">
+      <c r="A61" s="47">
         <v>1977</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="58">
-        <v>0</v>
+      <c r="D61" s="49"/>
+      <c r="E61" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="51">
+        <v>1</v>
       </c>
       <c r="G61" s="11" t="str">
         <f t="shared" si="0"/>
@@ -25364,20 +25108,20 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="49">
+      <c r="A62" s="42">
         <v>1978</v>
       </c>
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="53">
+      <c r="D62" s="44"/>
+      <c r="E62" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="46">
         <v>0</v>
       </c>
       <c r="G62" s="11" t="str">
@@ -25452,20 +25196,20 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="54">
+      <c r="A66" s="47">
         <v>1982</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="58">
+      <c r="D66" s="49"/>
+      <c r="E66" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="51">
         <v>2</v>
       </c>
       <c r="G66" s="11" t="str">
@@ -25474,20 +25218,20 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="49">
+      <c r="A67" s="42">
         <v>1983</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="51"/>
-      <c r="E67" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="53">
+      <c r="D67" s="44"/>
+      <c r="E67" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="46">
         <v>1</v>
       </c>
       <c r="G67" s="11" t="str">
@@ -25562,22 +25306,22 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="54">
+      <c r="A71" s="47">
         <v>1986</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D71" s="56" t="s">
+      <c r="D71" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="58">
+      <c r="E71" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="51">
         <v>0</v>
       </c>
       <c r="G71" s="11" t="str">
@@ -25586,20 +25330,20 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="49">
+      <c r="A72" s="42">
         <v>1987</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="53">
+      <c r="D72" s="44"/>
+      <c r="E72" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="46">
         <v>1</v>
       </c>
       <c r="G72" s="11" t="str">
@@ -25676,22 +25420,22 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="54">
+      <c r="A76" s="47">
         <v>1989</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="56" t="s">
+      <c r="D76" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E76" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="58">
+      <c r="E76" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="51">
         <v>0</v>
       </c>
       <c r="G76" s="11" t="str">
@@ -25792,7 +25536,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 F9:F11 F7 F45 F48:F51 F77:F79">
-    <cfRule type="containsText" dxfId="52" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -25807,7 +25551,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -25822,7 +25566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F44">
-    <cfRule type="containsText" dxfId="50" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -25837,7 +25581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="49" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -25852,7 +25596,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="48" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -25867,7 +25611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="47" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -25882,7 +25626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="42" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -25897,7 +25641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F56">
-    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25914,7 +25658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:F61">
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25931,7 +25675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:F66">
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25948,7 +25692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:F71">
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25965,7 +25709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:F76">
-    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F72))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Russia/#Russia#USSR#Regular#[1921-1991]#circulation_quality.xlsx
+++ b/Collections/Russia/#Russia#USSR#Regular#[1921-1991]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48497AF6-0D1C-4B3D-9A6B-1EA179B5FAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A334AA3-D468-4612-AFAF-DB2BBBA9D79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="полкопейки" sheetId="12" r:id="rId1"/>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="85">
   <si>
     <t>-</t>
   </si>
@@ -1205,30 +1205,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,7 +1240,56 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="121">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2122,15 +2171,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE5DFEC"/>
@@ -2157,9 +2197,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Обзор всего-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="115"/>
-      <tableStyleElement type="firstRowStripe" dxfId="114"/>
-      <tableStyleElement type="secondRowStripe" dxfId="113"/>
+      <tableStyleElement type="headerRow" dxfId="120"/>
+      <tableStyleElement type="firstRowStripe" dxfId="119"/>
+      <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2181,9 +2221,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="112"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="111" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2454,7 +2494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2472,11 +2512,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="59"/>
@@ -2489,8 +2529,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -4206,7 +4246,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F7 F9:F10">
-    <cfRule type="containsText" dxfId="109" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4223,7 +4263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="108" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4240,7 +4280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="107" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4257,7 +4297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="106" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4274,7 +4314,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="105" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4291,7 +4331,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4308,11 +4348,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F13 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73">
-    <cfRule type="containsText" dxfId="103" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F13 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73">
+  <conditionalFormatting sqref="F13 F11 F15 F17 F19 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F51 F53 F55 F57 F59 F61 F63 F65 F67 F69 F71 F73">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4325,11 +4365,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F14 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72">
-    <cfRule type="containsText" dxfId="102" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12 F14 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72">
+  <conditionalFormatting sqref="F14 F12 F16 F18 F20 F22 F24 F26 F28 F30 F32 F34 F36 F38 F40 F42 F44 F46 F48 F50 F52 F54 F56 F58 F60 F62 F64 F66 F68 F70 F72">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4369,17 +4409,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
@@ -4389,8 +4429,8 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -6672,7 +6712,7 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:I43 I77:I78">
-    <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -6687,7 +6727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I5">
-    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -6702,7 +6742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -6717,7 +6757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -6732,7 +6772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I76))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -6747,7 +6787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I79))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -6762,7 +6802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:I50 I44">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I44))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -6777,7 +6817,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -6792,7 +6832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -6807,7 +6847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:I55">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I51))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6824,7 +6864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I60">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I56))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6841,7 +6881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:I65">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I61))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6858,7 +6898,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:I70">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I66))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6875,7 +6915,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71:I75">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I71))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6919,11 +6959,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="59"/>
@@ -6936,8 +6976,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -8689,7 +8729,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F72 F74">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -8704,7 +8744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -8746,11 +8786,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="59"/>
@@ -8763,8 +8803,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -10492,7 +10532,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F72">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -10507,7 +10547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F73))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -10614,11 +10654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10634,15 +10674,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
@@ -10652,8 +10692,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -10881,7 +10921,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -11185,7 +11225,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -12371,7 +12411,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="101" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12388,7 +12428,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G11 G32:G36 G29 G38 G40 G13:G25">
-    <cfRule type="containsText" dxfId="100" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12405,7 +12445,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="99" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12422,7 +12462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="98" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12439,7 +12479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="97" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12456,7 +12496,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="96" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12473,7 +12513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="95" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12490,7 +12530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="94" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12507,7 +12547,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="93" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12524,7 +12564,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12541,7 +12581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsText" dxfId="91" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12558,7 +12598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="containsText" dxfId="90" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12575,7 +12615,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="89" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12592,7 +12632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G74">
-    <cfRule type="containsText" dxfId="88" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12609,7 +12649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75:G76">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G75))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12626,7 +12666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12643,7 +12683,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12660,7 +12700,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G44))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12705,15 +12745,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
@@ -12723,8 +12763,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -14555,7 +14595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14572,7 +14612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="82" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14589,7 +14629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="81" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14606,7 +14646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="80" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14623,7 +14663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G18 G20:G25">
-    <cfRule type="containsText" dxfId="79" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14640,7 +14680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="78" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14657,7 +14697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="77" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14674,7 +14714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="76" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14691,7 +14731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G42">
-    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14708,7 +14748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G75">
-    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14725,7 +14765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:G77">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14742,7 +14782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14759,7 +14799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14838,15 +14878,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
@@ -14856,8 +14896,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -16627,7 +16667,7 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G6 G9:G18 G34:G42 G44:G46 G20:G32">
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -16642,7 +16682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:G78">
-    <cfRule type="containsText" dxfId="67" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G47))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16659,7 +16699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -16674,7 +16714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="65" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -16689,7 +16729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16706,7 +16746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -16721,7 +16761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -16764,16 +16804,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="65"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
@@ -16783,8 +16823,8 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -18882,12 +18922,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H76">
-    <cfRule type="containsText" dxfId="61" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="6" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="7">
@@ -19009,10 +19049,10 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="B2:G2"/>
+      <selection pane="bottomRight" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19027,16 +19067,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="65"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
@@ -19046,8 +19086,8 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -20007,7 +20047,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="11" t="str">
         <f t="shared" ref="I39" si="2">IF(OR(AND(H39&gt;1,H39&lt;&gt;"-")),"Can exchange","")</f>
@@ -20991,7 +21031,7 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H12 H14:H23 H27:H28 H30:H38 H25 H40:H44 H47:H73">
-    <cfRule type="containsText" dxfId="55" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -21006,7 +21046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -21021,7 +21061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -21035,8 +21075,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24 H26">
-    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
+  <conditionalFormatting sqref="H26 H24">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H24))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -21051,7 +21091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="51" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H39))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -21066,7 +21106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="containsText" dxfId="50" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -21081,7 +21121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -21096,7 +21136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H75">
-    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H74))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -21111,7 +21151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76:H78">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H76))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21140,7 +21180,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I56" sqref="I56"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -21155,15 +21195,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
@@ -21173,8 +21213,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -22013,7 +22053,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="11" t="str">
         <f t="shared" si="1"/>
@@ -22933,7 +22973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G44 G47:G54">
-    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22950,7 +22990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G59">
-    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G55))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22967,7 +23007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:G64">
-    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22984,7 +23024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:G69">
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G65))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23001,7 +23041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:G74">
-    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23018,7 +23058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G42">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G40))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
@@ -23033,7 +23073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -23048,7 +23088,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -23063,7 +23103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -23110,7 +23150,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -23125,15 +23165,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="64"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="22" t="s">
         <v>3</v>
       </c>
@@ -23143,8 +23183,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -23293,7 +23333,9 @@
       <c r="D8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="16" t="s">
         <v>0</v>
       </c>
@@ -23955,7 +23997,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="11" t="str">
         <f t="shared" ref="H35:H66" si="1">IF(OR(AND(G35&gt;1,G35&lt;&gt;"-")),"Can exchange","")</f>
@@ -24005,7 +24047,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="11" t="str">
         <f t="shared" si="1"/>
@@ -24030,7 +24072,7 @@
         <v>5</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="11" t="str">
         <f t="shared" si="1"/>
@@ -24055,7 +24097,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="11" t="str">
         <f t="shared" si="1"/>
@@ -24075,7 +24117,9 @@
       <c r="D40" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="F40" s="16" t="s">
         <v>0</v>
       </c>
@@ -24100,7 +24144,9 @@
       <c r="D41" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="F41" s="16" t="s">
         <v>0</v>
       </c>
@@ -24125,11 +24171,13 @@
       <c r="D42" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="35"/>
+      <c r="E42" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="F42" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="36" t="s">
+      <c r="G42" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H42" s="11" t="str">
@@ -24196,7 +24244,9 @@
       <c r="D45" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="16"/>
+      <c r="E45" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="F45" s="16" t="s">
         <v>0</v>
       </c>
@@ -24221,7 +24271,9 @@
       <c r="D46" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="16"/>
+      <c r="E46" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="F46" s="16" t="s">
         <v>0</v>
       </c>
@@ -24887,7 +24939,58 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G42 G45:G46">
+  <conditionalFormatting sqref="G3:G39">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G44 G47:G49">
+    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G44 G47:G49">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:G54">
+    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G50))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:G54">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G59">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G55:G59">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24899,12 +25002,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G44 G47:G49">
-    <cfRule type="containsText" dxfId="40" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G43))))</formula>
+  <conditionalFormatting sqref="G60:G64">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43:G44 G47:G49">
+  <conditionalFormatting sqref="G60:G64">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24916,12 +25019,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G54">
-    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G50))))</formula>
+  <conditionalFormatting sqref="G65:G69">
+    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G65))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G54">
+  <conditionalFormatting sqref="G65:G69">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70:G74">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G70:G74">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G40))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24933,12 +25068,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:G59">
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G55))))</formula>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G41))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55:G59">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24950,12 +25083,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60:G64">
-    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G60))))</formula>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G42))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60:G64">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24967,12 +25098,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G65:G69">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G65))))</formula>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G45))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G65:G69">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24984,12 +25113,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G70:G74">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G70))))</formula>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G46))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70:G74">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -25007,7 +25134,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" text="*-" id="{8AE4D441-51E7-4FBE-B7D4-1546BA56D6D5}">
+          <x14:cfRule type="containsText" priority="27" operator="containsText" text="*-" id="{8AE4D441-51E7-4FBE-B7D4-1546BA56D6D5}">
             <xm:f>NOT(ISERROR(SEARCH(("*-"),('10копеек'!I3))))</xm:f>
             <x14:dxf>
               <fill>
@@ -25018,7 +25145,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>G3:G42 G45:G46</xm:sqref>
+          <xm:sqref>G3:G39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -25034,7 +25161,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="B2:H2"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -25049,17 +25176,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="54"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="65"/>
       <c r="E1" s="65"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="22" t="s">
         <v>3</v>
       </c>
@@ -25069,8 +25196,8 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -27225,7 +27352,7 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I5 I9:I11 I7 I45 I48:I51 I77:I79">
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -27240,7 +27367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I8))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="32">
@@ -27255,7 +27382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I44">
-    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I12))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="28">
@@ -27270,7 +27397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -27285,7 +27412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I46))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -27300,7 +27427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I47))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -27315,7 +27442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I80))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -27330,7 +27457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:I56">
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I52))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27347,7 +27474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57:I61">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I57))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27364,7 +27491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:I66">
-    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I62))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27381,7 +27508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:I71">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I67))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27398,7 +27525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:I76">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I72))))</formula>
     </cfRule>
   </conditionalFormatting>
